--- a/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
+++ b/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-20T07:40:26+00:00</t>
+    <t>2024-11-20T08:05:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
+++ b/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-20T08:05:39+00:00</t>
+    <t>2024-11-28T16:14:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
+++ b/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T16:14:44+00:00</t>
+    <t>2024-11-28T16:30:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
+++ b/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T16:30:08+00:00</t>
+    <t>2024-11-28T17:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
+++ b/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T17:42:46+00:00</t>
+    <t>2024-11-28T18:00:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
+++ b/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T18:00:32+00:00</t>
+    <t>2024-11-28T18:12:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
+++ b/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T18:12:26+00:00</t>
+    <t>2024-11-28T18:47:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
+++ b/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T18:47:04+00:00</t>
+    <t>2024-11-28T18:58:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
+++ b/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T18:58:40+00:00</t>
+    <t>2024-11-28T19:10:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
+++ b/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T19:10:17+00:00</t>
+    <t>2024-11-28T19:24:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
+++ b/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T19:24:21+00:00</t>
+    <t>2024-11-28T19:42:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
+++ b/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T19:42:18+00:00</t>
+    <t>2024-11-28T19:54:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
+++ b/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T19:54:59+00:00</t>
+    <t>2024-11-28T20:23:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
+++ b/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T20:23:33+00:00</t>
+    <t>2024-11-28T20:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
+++ b/sitepreview/base/0.1.0a/StructureDefinition-SGImplementationGuide.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T20:40:38+00:00</t>
+    <t>2024-11-28T22:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
